--- a/data/trans_camb/POLIPATOLOGIA_Lim_2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA_Lim_2-Edad-trans_camb.xlsx
@@ -624,7 +624,7 @@
         <v>1.552447881028489</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>6.887579300347606</v>
+        <v>6.887579300347604</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.6408469797470638</v>
+        <v>-0.6363540746591853</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5822382789893188</v>
+        <v>0.8224145619449859</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.1723255245185974</v>
+        <v>-0.4528936732033966</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5.649030743928427</v>
+        <v>5.46075361517944</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.006282655136770644</v>
+        <v>-0.01530501102873027</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.805748239688008</v>
+        <v>3.844603242041648</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.314373465040035</v>
+        <v>2.371689642503373</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.470574542487809</v>
+        <v>8.201146702538766</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.565564027097972</v>
+        <v>5.573504184656985</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17.12315811960466</v>
+        <v>17.24330593401361</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.309743497153825</v>
+        <v>3.469769747011399</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>10.40700327781946</v>
+        <v>10.42525636583952</v>
       </c>
     </row>
     <row r="7">
@@ -702,7 +702,7 @@
         <v>0.6840095951980034</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>3.034672137272516</v>
+        <v>3.034672137272515</v>
       </c>
     </row>
     <row r="8">
@@ -712,21 +712,23 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="6" t="inlineStr"/>
+      <c r="C8" s="6" t="n">
+        <v>-0.6221246789498975</v>
+      </c>
       <c r="D8" s="6" t="n">
-        <v>-0.03751597735746867</v>
+        <v>0.1325675274690931</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.09837409898526268</v>
+        <v>-0.1104896412131356</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>1.131497794674466</v>
+        <v>1.003843665366028</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.03937911525830844</v>
+        <v>-0.03648260022429619</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>1.283383311655006</v>
+        <v>1.338443982392491</v>
       </c>
     </row>
     <row r="9">
@@ -736,21 +738,23 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="6" t="inlineStr"/>
+      <c r="C9" s="6" t="n">
+        <v>8.153414231191189</v>
+      </c>
       <c r="D9" s="6" t="n">
-        <v>21.8921048661803</v>
+        <v>23.343287652907</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.093315499513048</v>
+        <v>2.317870654736502</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>6.508295172797773</v>
+        <v>6.499356357000085</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.877355784105845</v>
+        <v>2.092176377724781</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>6.145122892024203</v>
+        <v>6.00223235387084</v>
       </c>
     </row>
     <row r="10">
@@ -768,7 +772,7 @@
         <v>-0.5522178035177892</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>2.25248549959278</v>
+        <v>2.252485499592781</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>-0.5939448379549517</v>
@@ -780,7 +784,7 @@
         <v>-0.5137906272549425</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>4.549315599185407</v>
+        <v>4.549315599185409</v>
       </c>
     </row>
     <row r="11">
@@ -791,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.495143167089508</v>
+        <v>-2.444671402509424</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.5074792616540391</v>
+        <v>-0.7554842775543128</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.577875419104327</v>
+        <v>-3.316549694694416</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.667012263554619</v>
+        <v>2.87256757338142</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.250477041707154</v>
+        <v>-2.122498199305852</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.302266084215406</v>
+        <v>2.170546432986889</v>
       </c>
     </row>
     <row r="12">
@@ -817,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.636781820362735</v>
+        <v>1.608331969126816</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.495061390737024</v>
+        <v>5.3696768524817</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.415957769138447</v>
+        <v>2.790493270879937</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10.60314935816746</v>
+        <v>10.29266384086289</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.299145406134398</v>
+        <v>1.486594927824289</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>7.103375484127461</v>
+        <v>7.199765681143321</v>
       </c>
     </row>
     <row r="13">
@@ -846,7 +850,7 @@
         <v>-0.1507420710045336</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.6148739264712227</v>
+        <v>0.614873926471223</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>-0.0855548614371283</v>
@@ -858,7 +862,7 @@
         <v>-0.09869759470789768</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8739094942343535</v>
+        <v>0.8739094942343537</v>
       </c>
     </row>
     <row r="14">
@@ -869,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5550386481767092</v>
+        <v>-0.5468632844816308</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1631181322168066</v>
+        <v>-0.2077611205549722</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4197575553193478</v>
+        <v>-0.3949638116731689</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.3042271940573034</v>
+        <v>0.3356691278930922</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3748748955011869</v>
+        <v>-0.3610774905405796</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3702345989473574</v>
+        <v>0.3166736465512039</v>
       </c>
     </row>
     <row r="15">
@@ -895,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.606094908353781</v>
+        <v>0.6162928258621831</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.054613659945614</v>
+        <v>1.735751227155252</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.4461182638873288</v>
+        <v>0.5047436991770278</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.913950333492381</v>
+        <v>1.874899217509312</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3139711220997181</v>
+        <v>0.3400734797819567</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.608040624337581</v>
+        <v>1.617215021714464</v>
       </c>
     </row>
     <row r="16">
@@ -940,7 +944,7 @@
         <v>-2.862157137315422</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>2.705018118812166</v>
+        <v>2.705018118812164</v>
       </c>
     </row>
     <row r="17">
@@ -951,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.626423749712907</v>
+        <v>-2.584923848334661</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.1185324015749111</v>
+        <v>-0.4116377827480464</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-9.138863543726709</v>
+        <v>-9.069356021624033</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.19935245606787</v>
+        <v>-1.391370105166173</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-4.912726927380566</v>
+        <v>-5.238619527260912</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.389894850548049</v>
+        <v>0.07454287155480833</v>
       </c>
     </row>
     <row r="18">
@@ -977,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.453430756946236</v>
+        <v>2.662127161900377</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.715243796014788</v>
+        <v>5.650453757617211</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-1.748466644824803</v>
+        <v>-1.863612635092977</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.692569814098974</v>
+        <v>6.611560451830783</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-0.694843951101317</v>
+        <v>-0.6222088148579099</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.182132780187817</v>
+        <v>5.22600153635672</v>
       </c>
     </row>
     <row r="19">
@@ -1018,7 +1022,7 @@
         <v>-0.2660203768456794</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2514152455010724</v>
+        <v>0.2514152455010722</v>
       </c>
     </row>
     <row r="20">
@@ -1029,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3692285449230445</v>
+        <v>-0.3820947898180325</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.02121014281915128</v>
+        <v>-0.1056014744918562</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.5257770030501638</v>
+        <v>-0.511402899107675</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.07085428197823777</v>
+        <v>-0.07320720387509269</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4130575848049002</v>
+        <v>-0.4287255271824736</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03055350463017009</v>
+        <v>0.005238155240430622</v>
       </c>
     </row>
     <row r="21">
@@ -1055,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.5964736507054968</v>
+        <v>0.6284046136751447</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.316833486605277</v>
+        <v>1.265768342243782</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.1283949124576807</v>
+        <v>-0.1290558307338726</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.4797065813970979</v>
+        <v>0.4968083998543378</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.0656449757360795</v>
+        <v>-0.05872147715161788</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.541844800104175</v>
+        <v>0.5444253537576389</v>
       </c>
     </row>
     <row r="22">
@@ -1100,7 +1104,7 @@
         <v>-0.03878979077041322</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>5.849847594398189</v>
+        <v>5.849847594398194</v>
       </c>
     </row>
     <row r="23">
@@ -1111,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.120233894653248</v>
+        <v>-3.485189615948552</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.182890470990478</v>
+        <v>1.13210750257204</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-5.508850895615411</v>
+        <v>-5.327494509028226</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.589734942092252</v>
+        <v>1.384574502301305</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.148303178531278</v>
+        <v>-3.065606467536643</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.966023796264201</v>
+        <v>2.701936169623234</v>
       </c>
     </row>
     <row r="24">
@@ -1137,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.177751297803571</v>
+        <v>4.870775276260003</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>9.699058593740862</v>
+        <v>9.733591329906009</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.241266940764263</v>
+        <v>3.65511107997406</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10.40014828125358</v>
+        <v>10.12414587154296</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.034632579045998</v>
+        <v>3.193114145600578</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>8.869809476678665</v>
+        <v>8.97168075623361</v>
       </c>
     </row>
     <row r="25">
@@ -1178,7 +1182,7 @@
         <v>-0.002170604817245541</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3273466320998586</v>
+        <v>0.3273466320998589</v>
       </c>
     </row>
     <row r="26">
@@ -1189,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2082640989778739</v>
+        <v>-0.2229763335205023</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.07464458511506425</v>
+        <v>0.06896094261225176</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2205158733280236</v>
+        <v>-0.2115876958630021</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.06332869682757969</v>
+        <v>0.05563389917453766</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1614531016751956</v>
+        <v>-0.1594672041719914</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.156727046879683</v>
+        <v>0.135791685232289</v>
       </c>
     </row>
     <row r="27">
@@ -1215,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.4906182543131939</v>
+        <v>0.444719374282441</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.880016008867157</v>
+        <v>0.9142745977778695</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.21804845038163</v>
+        <v>0.184205167939256</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.5128288907356796</v>
+        <v>0.5156716817712621</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1884042348985213</v>
+        <v>0.2014813418889282</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5566554049867622</v>
+        <v>0.5541060770352193</v>
       </c>
     </row>
     <row r="28">
@@ -1248,13 +1252,13 @@
         <v>-2.691244608306476</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.8681904873502622</v>
+        <v>0.8681904873502677</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>-6.687193255115193</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>-6.297979992577401</v>
+        <v>-6.297979992577391</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>-4.742809644101226</v>
@@ -1271,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-8.136292025141186</v>
+        <v>-8.448769598748628</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.823092305467289</v>
+        <v>-4.578314725915757</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-12.6677137849796</v>
+        <v>-13.5942850570394</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-12.67126347354981</v>
+        <v>-12.19052025042017</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-9.34696814567844</v>
+        <v>-9.488715394024915</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-7.025576538005561</v>
+        <v>-7.154650510879561</v>
       </c>
     </row>
     <row r="30">
@@ -1297,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.648117561717291</v>
+        <v>3.681161972882637</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>6.64908593755005</v>
+        <v>6.768350389372054</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-0.1914616331015548</v>
+        <v>0.3109333345409972</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-0.08145375816157414</v>
+        <v>-0.3980948695458101</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-0.2048159442872956</v>
+        <v>-0.03649376470907997</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.139349851269615</v>
+        <v>0.5919816912611551</v>
       </c>
     </row>
     <row r="31">
@@ -1326,13 +1330,13 @@
         <v>-0.1035569565868574</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>0.03340728090273062</v>
+        <v>0.03340728090273084</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>-0.1471810800252725</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>-0.1386147314609248</v>
+        <v>-0.1386147314609245</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>-0.1320556620072355</v>
@@ -1349,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2871663392415611</v>
+        <v>-0.2810954304145794</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1629230250133366</v>
+        <v>-0.1570760720576508</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2581713012672088</v>
+        <v>-0.2787466489348185</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.2575423349151624</v>
+        <v>-0.2450520300016714</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.2421711553477431</v>
+        <v>-0.248285056371244</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.1823982667932128</v>
+        <v>-0.1871352610845313</v>
       </c>
     </row>
     <row r="33">
@@ -1375,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1607025847776715</v>
+        <v>0.1638069696927821</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.2912608011820986</v>
+        <v>0.2991045207047618</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.003886807616858481</v>
+        <v>0.005648640735940571</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.004299438098948255</v>
+        <v>-0.009605700635789914</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.00685137112926806</v>
+        <v>-0.0002425706737843992</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.03474016684809474</v>
+        <v>0.0165062614269805</v>
       </c>
     </row>
     <row r="34">
@@ -1420,7 +1424,7 @@
         <v>-13.06274068000964</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-19.02246819566746</v>
+        <v>-19.02246819566745</v>
       </c>
     </row>
     <row r="35">
@@ -1431,22 +1435,22 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-25.6027089129438</v>
+        <v>-25.49558695104919</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-30.02450154983068</v>
+        <v>-29.63612070725604</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-16.94106151445862</v>
+        <v>-16.82156673214211</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-21.97328524474331</v>
+        <v>-21.5997626844715</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-18.25670962093563</v>
+        <v>-18.13725458575432</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-24.01201530633268</v>
+        <v>-23.77917890967109</v>
       </c>
     </row>
     <row r="36">
@@ -1457,22 +1461,22 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>-8.687589998207725</v>
+        <v>-9.719138688560323</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>-15.63604826939381</v>
+        <v>-15.71072305978622</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-1.887016634233706</v>
+        <v>-1.977427652514681</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>-9.17885889468271</v>
+        <v>-9.220288594019246</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-7.098894417136445</v>
+        <v>-7.212847286381139</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-14.55100766889425</v>
+        <v>-14.23182445921813</v>
       </c>
     </row>
     <row r="37">
@@ -1498,7 +1502,7 @@
         <v>-0.2298018213662698</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.3346463001394509</v>
+        <v>-0.3346463001394508</v>
       </c>
     </row>
     <row r="38">
@@ -1509,22 +1513,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.4551477009500546</v>
+        <v>-0.4687644390087105</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.5344628122314625</v>
+        <v>-0.5320435121308364</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.2536186641746552</v>
+        <v>-0.2538016155434958</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.3321634400466488</v>
+        <v>-0.3290258536620251</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.3054101607574866</v>
+        <v>-0.3087046624346695</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.3982558036542145</v>
+        <v>-0.3938086784788145</v>
       </c>
     </row>
     <row r="39">
@@ -1535,22 +1539,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>-0.1865261663625984</v>
+        <v>-0.2064667287923264</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>-0.3335399099399519</v>
+        <v>-0.3392856030751791</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.03078075116847616</v>
+        <v>-0.0353184069982612</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>-0.1595855934373084</v>
+        <v>-0.1605981857984238</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.1333421835233458</v>
+        <v>-0.1352254411037944</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.269547684517651</v>
+        <v>-0.2656621732780424</v>
       </c>
     </row>
     <row r="40">
@@ -1574,7 +1578,7 @@
         <v>-15.56113978079647</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>-9.915712850487724</v>
+        <v>-9.915712850487711</v>
       </c>
       <c r="G40" s="5" t="n">
         <v>-15.50772555226798</v>
@@ -1591,22 +1595,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-23.74650149698724</v>
+        <v>-23.41712960730429</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-30.19074388241777</v>
+        <v>-30.58654988560473</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-22.65733779090909</v>
+        <v>-21.93292740231972</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-15.60659538571024</v>
+        <v>-15.32746272365006</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-20.59273679568168</v>
+        <v>-21.40703362733164</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-19.5159271962198</v>
+        <v>-19.48942415187543</v>
       </c>
     </row>
     <row r="42">
@@ -1617,22 +1621,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-7.044075890906525</v>
+        <v>-6.834666394479519</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-14.74212618812686</v>
+        <v>-14.76031525390297</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-8.747467485198481</v>
+        <v>-8.057875690202959</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>-4.381404541233338</v>
+        <v>-4.187781299380263</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-9.831114252552736</v>
+        <v>-10.07316893757747</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-10.54829485475071</v>
+        <v>-9.973657466483147</v>
       </c>
     </row>
     <row r="43">
@@ -1652,7 +1656,7 @@
         <v>-0.1981069671830819</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>-0.1262357274556845</v>
+        <v>-0.1262357274556844</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>-0.2101413959651187</v>
@@ -1669,22 +1673,22 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.339308734788051</v>
+        <v>-0.332924549959638</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.4312636520691446</v>
+        <v>-0.4314178152151126</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.2802345165898607</v>
+        <v>-0.2701137352402409</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.1886705349150353</v>
+        <v>-0.1858751637403139</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.2715539641547429</v>
+        <v>-0.279256201035998</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.2583942322122222</v>
+        <v>-0.2563260839260034</v>
       </c>
     </row>
     <row r="45">
@@ -1695,22 +1699,22 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>-0.1179139529480047</v>
+        <v>-0.1120850410027094</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.2464391528570098</v>
+        <v>-0.2391521830875583</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.1160247341739096</v>
+        <v>-0.1072996176311402</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>-0.06002823289024527</v>
+        <v>-0.05633072972026432</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>-0.1387455141978044</v>
+        <v>-0.1406503723028301</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.1492855393321422</v>
+        <v>-0.1427361526758502</v>
       </c>
     </row>
     <row r="46">
@@ -1734,7 +1738,7 @@
         <v>-3.417330452941669</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>3.175362872489496</v>
+        <v>3.175362872489501</v>
       </c>
       <c r="G46" s="5" t="n">
         <v>-2.745461391103335</v>
@@ -1751,22 +1755,22 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-4.037205436121325</v>
+        <v>-3.851047729552354</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-0.6830567459041289</v>
+        <v>-0.7247661528468317</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-5.739501776746402</v>
+        <v>-5.542059056125497</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>1.187866246635594</v>
+        <v>1.187307934350173</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-4.160528021868409</v>
+        <v>-4.306655618401003</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>0.7819849013892762</v>
+        <v>0.8063362678368473</v>
       </c>
     </row>
     <row r="48">
@@ -1777,22 +1781,22 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-0.4078599662975332</v>
+        <v>-0.2914742393240881</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>2.992382545703093</v>
+        <v>2.984778484677229</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-1.188533152133661</v>
+        <v>-0.9542231067134992</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>5.279532076945959</v>
+        <v>5.361963300473739</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-1.216781442081004</v>
+        <v>-1.312444850174029</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>3.760421080639334</v>
+        <v>3.570067405425533</v>
       </c>
     </row>
     <row r="49">
@@ -1812,7 +1816,7 @@
         <v>-0.1170788145126591</v>
       </c>
       <c r="F49" s="6" t="n">
-        <v>0.1087889292177059</v>
+        <v>0.1087889292177061</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>-0.1182895525800886</v>
@@ -1829,22 +1833,22 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.2232240617683733</v>
+        <v>-0.2130679541070137</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.0385888491269963</v>
+        <v>-0.04193669399044404</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.187057428099684</v>
+        <v>-0.1880133001712622</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.03949171103000221</v>
+        <v>0.03742080098474909</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.1730968314273885</v>
+        <v>-0.1800180198919326</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.03285941080299568</v>
+        <v>0.03217930005529236</v>
       </c>
     </row>
     <row r="51">
@@ -1855,22 +1859,22 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.02505562592932453</v>
+        <v>-0.0175318469009665</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.1871930385371955</v>
+        <v>0.1874793821184383</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.03986398062342848</v>
+        <v>-0.03532188119944671</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.1887300825145894</v>
+        <v>0.1871030911894048</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>-0.05477559534506843</v>
+        <v>-0.05866262200705814</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.1685239162817869</v>
+        <v>0.1593873247831164</v>
       </c>
     </row>
     <row r="52">
